--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/CALIFORNIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/CALIFORNIA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2278"/>
+  <dimension ref="A1:D2272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C41">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C45">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C55">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C62">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C92">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C96">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C101">
@@ -1837,7 +1837,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C112">
@@ -1850,7 +1850,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C113">
@@ -2421,7 +2421,7 @@
         <v>144</v>
       </c>
       <c r="D156">
-        <v>0.0009047158312704975</v>
+        <v>0.0009047158312704976</v>
       </c>
     </row>
     <row r="157">
@@ -2453,7 +2453,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C159">
@@ -2583,7 +2583,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C169">
@@ -2622,7 +2622,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C172">
@@ -2869,7 +2869,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C191">
@@ -2882,7 +2882,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C192">
@@ -2895,7 +2895,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C193">
@@ -2999,7 +2999,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C201">
@@ -3238,7 +3238,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C219">
@@ -3438,7 +3438,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C234">
@@ -3464,7 +3464,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3521,7 +3521,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C240">
@@ -3721,7 +3721,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C255">
@@ -3903,7 +3903,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C269">
@@ -3955,7 +3955,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C273">
@@ -4046,7 +4046,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C280">
@@ -4059,7 +4059,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C281">
@@ -4072,7 +4072,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C282">
@@ -4085,7 +4085,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C283">
@@ -4215,12 +4215,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C293">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C298">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C305">
@@ -4480,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C313">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C319">
@@ -4649,7 +4649,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C326">
@@ -4753,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C334">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C335">
@@ -4987,7 +4987,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C352">
@@ -5169,7 +5169,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C366">
@@ -5182,7 +5182,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5195,7 +5195,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C368">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C370">
@@ -5247,7 +5247,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5364,7 +5364,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C381">
@@ -5377,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C382">
@@ -5559,7 +5559,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C396">
@@ -5637,7 +5637,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C402">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C403">
@@ -5663,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C404">
@@ -5676,7 +5676,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C405">
@@ -5863,7 +5863,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C419">
@@ -5876,7 +5876,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C420">
@@ -5980,7 +5980,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C428">
@@ -6032,7 +6032,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C432">
@@ -6136,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C440">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C444">
@@ -6214,7 +6214,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C446">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C448">
@@ -6266,7 +6266,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C450">
@@ -6292,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C452">
@@ -6357,7 +6357,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C457">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C463">
@@ -6479,7 +6479,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C466">
@@ -6492,7 +6492,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C467">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C471">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C472">
@@ -6583,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C474">
@@ -6596,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C475">
@@ -6635,7 +6635,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C478">
@@ -6648,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C479">
@@ -6661,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C480">
@@ -6674,7 +6674,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C481">
@@ -6739,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C486">
@@ -6752,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C487">
@@ -6804,7 +6804,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C491">
@@ -6817,7 +6817,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C492">
@@ -6895,7 +6895,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C498">
@@ -6908,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C499">
@@ -6934,7 +6934,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C501">
@@ -6947,7 +6947,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C502">
@@ -6973,7 +6973,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C504">
@@ -7012,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C507">
@@ -7181,7 +7181,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C520">
@@ -7207,7 +7207,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C522">
@@ -7233,7 +7233,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C524">
@@ -7259,7 +7259,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C526">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C530">
@@ -7324,7 +7324,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C531">
@@ -7485,7 +7485,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C543">
@@ -7576,7 +7576,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C550">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C551">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C557">
@@ -7745,7 +7745,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C563">
@@ -7797,7 +7797,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C567">
@@ -7914,7 +7914,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C576">
@@ -7927,7 +7927,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C577">
@@ -7940,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C578">
@@ -7953,7 +7953,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7966,7 +7966,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C580">
@@ -7992,7 +7992,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C582">
@@ -8005,7 +8005,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C583">
@@ -8018,7 +8018,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C584">
@@ -8057,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C587">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C593">
@@ -8148,7 +8148,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C594">
@@ -8200,7 +8200,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C598">
@@ -8226,7 +8226,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C600">
@@ -8239,7 +8239,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C601">
@@ -8278,7 +8278,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C604">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C613">
@@ -8408,7 +8408,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C614">
@@ -8421,7 +8421,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C615">
@@ -8473,7 +8473,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C619">
@@ -8486,7 +8486,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C620">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C625">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C626">
@@ -8634,7 +8634,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C631">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C634">
@@ -8699,7 +8699,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C636">
@@ -8777,7 +8777,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C642">
@@ -8868,7 +8868,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C649">
@@ -8881,7 +8881,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C650">
@@ -8998,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C659">
@@ -9089,7 +9089,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C666">
@@ -9102,7 +9102,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C667">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C668">
@@ -9167,7 +9167,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C672">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C678">
@@ -9258,7 +9258,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C679">
@@ -9362,7 +9362,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C687">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C692">
@@ -9440,7 +9440,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C693">
@@ -9466,7 +9466,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C695">
@@ -9479,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C696">
@@ -9518,7 +9518,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C699">
@@ -9544,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C701">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C702">
@@ -9570,7 +9570,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C703">
@@ -9583,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C704">
@@ -9622,7 +9622,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C707">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C708">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C711">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C715">
@@ -9739,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C716">
@@ -9778,7 +9778,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C719">
@@ -9791,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C720">
@@ -9947,7 +9947,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C732">
@@ -9960,7 +9960,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C733">
@@ -9973,7 +9973,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C734">
@@ -9986,7 +9986,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C735">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C740">
@@ -10064,14 +10064,14 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C741">
         <v>147</v>
       </c>
       <c r="D741">
-        <v>0.0009235640777552995</v>
+        <v>0.0009235640777552996</v>
       </c>
     </row>
     <row r="742">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C744">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C745">
@@ -10129,7 +10129,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C746">
@@ -10472,7 +10472,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C772">
@@ -10498,7 +10498,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C774">
@@ -11369,7 +11369,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C841">
@@ -11712,7 +11712,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C867">
@@ -11868,7 +11868,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C879">
@@ -11946,7 +11946,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C885">
@@ -11972,7 +11972,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C887">
@@ -12076,7 +12076,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C895">
@@ -12133,7 +12133,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C899">
@@ -12146,7 +12146,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C900">
@@ -12198,7 +12198,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C904">
@@ -12289,7 +12289,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C911">
@@ -12671,7 +12671,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C940">
@@ -12684,7 +12684,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C941">
@@ -12723,7 +12723,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C944">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C951">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C958">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C962">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C964">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C965">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C968">
@@ -13079,7 +13079,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C971">
@@ -13118,7 +13118,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C974">
@@ -13131,7 +13131,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C975">
@@ -13144,7 +13144,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C976">
@@ -13170,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C978">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C979">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C980">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C982">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C985">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C986">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C987">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C990">
@@ -13508,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1004">
@@ -13534,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1007">
@@ -13573,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1009">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1011">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1012">
@@ -13664,7 +13664,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1016">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1018">
@@ -13703,7 +13703,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1019">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1020">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1022">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1023">
@@ -13781,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1025">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1030">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1051">
@@ -14145,7 +14145,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1053">
@@ -14236,7 +14236,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1060">
@@ -14444,7 +14444,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1076">
@@ -14496,7 +14496,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1080">
@@ -14587,7 +14587,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1087">
@@ -14925,7 +14925,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1113">
@@ -14938,7 +14938,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1114">
@@ -15081,7 +15081,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1125">
@@ -15263,7 +15263,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1139">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1140">
@@ -15289,7 +15289,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1141">
@@ -15835,7 +15835,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1183">
@@ -15952,7 +15952,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1192">
@@ -16173,7 +16173,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1209">
@@ -16186,7 +16186,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1210">
@@ -16212,7 +16212,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1212">
@@ -16511,7 +16511,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1235">
@@ -16589,7 +16589,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1241">
@@ -16817,7 +16817,7 @@
         <v>146</v>
       </c>
       <c r="D1258">
-        <v>0.0009172813289270321</v>
+        <v>0.000917281328927032</v>
       </c>
     </row>
     <row r="1259">
@@ -16914,7 +16914,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1266">
@@ -16927,7 +16927,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1267">
@@ -16940,7 +16940,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1268">
@@ -17174,7 +17174,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1286">
@@ -17408,7 +17408,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1304">
@@ -17473,7 +17473,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1309">
@@ -17564,7 +17564,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1316">
@@ -17577,7 +17577,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1317">
@@ -17603,7 +17603,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1319">
@@ -17785,7 +17785,7 @@
     <row r="1333">
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1333">
@@ -17889,7 +17889,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1341">
@@ -17915,7 +17915,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Santa María la Asunción</t>
+          <t>Santa María La Asunción</t>
         </is>
       </c>
       <c r="C1343">
@@ -18435,7 +18435,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1383">
@@ -18994,7 +18994,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1426">
@@ -19306,7 +19306,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1450">
@@ -19332,7 +19332,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1452">
@@ -19345,7 +19345,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1453">
@@ -19371,7 +19371,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1455">
@@ -19384,7 +19384,7 @@
     <row r="1456">
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1456">
@@ -19397,7 +19397,7 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1457">
@@ -19410,7 +19410,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1458">
@@ -19436,7 +19436,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1460">
@@ -19449,7 +19449,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1461">
@@ -19462,7 +19462,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1462">
@@ -19488,7 +19488,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1464">
@@ -19501,7 +19501,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1465">
@@ -19553,7 +19553,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1469">
@@ -19566,7 +19566,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1470">
@@ -19579,7 +19579,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1471">
@@ -19592,7 +19592,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1472">
@@ -19605,7 +19605,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1473">
@@ -19644,7 +19644,7 @@
     <row r="1476">
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1476">
@@ -19657,7 +19657,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1477">
@@ -19670,7 +19670,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1478">
@@ -19709,7 +19709,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1481">
@@ -19722,7 +19722,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1482">
@@ -19761,7 +19761,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1485">
@@ -19825,7 +19825,7 @@
         <v>146</v>
       </c>
       <c r="D1489">
-        <v>0.0009172813289270321</v>
+        <v>0.000917281328927032</v>
       </c>
     </row>
     <row r="1490">
@@ -19877,7 +19877,7 @@
         <v>144</v>
       </c>
       <c r="D1493">
-        <v>0.0009047158312704975</v>
+        <v>0.0009047158312704976</v>
       </c>
     </row>
     <row r="1494">
@@ -20117,7 +20117,7 @@
     <row r="1512">
       <c r="B1512" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1512">
@@ -20189,13 +20189,13 @@
         <v>151</v>
       </c>
       <c r="D1517">
-        <v>0.0009486950730683689</v>
+        <v>0.0009486950730683688</v>
       </c>
     </row>
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1518">
@@ -20293,7 +20293,7 @@
         <v>146</v>
       </c>
       <c r="D1525">
-        <v>0.0009172813289270321</v>
+        <v>0.000917281328927032</v>
       </c>
     </row>
     <row r="1526">
@@ -20325,7 +20325,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1528">
@@ -20468,7 +20468,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1539">
@@ -20520,7 +20520,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1543">
@@ -20533,7 +20533,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1544">
@@ -20741,7 +20741,7 @@
     <row r="1560">
       <c r="B1560" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1560">
@@ -20754,7 +20754,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1561">
@@ -20819,7 +20819,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1566">
@@ -20845,7 +20845,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1568">
@@ -20897,7 +20897,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1572">
@@ -21027,7 +21027,7 @@
     <row r="1582">
       <c r="B1582" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1582">
@@ -21040,7 +21040,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1583">
@@ -21209,7 +21209,7 @@
     <row r="1596">
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1596">
@@ -21339,7 +21339,7 @@
     <row r="1606">
       <c r="B1606" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1606">
@@ -21560,7 +21560,7 @@
     <row r="1623">
       <c r="B1623" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1623">
@@ -21612,7 +21612,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1627">
@@ -21625,7 +21625,7 @@
     <row r="1628">
       <c r="B1628" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1628">
@@ -21742,7 +21742,7 @@
     <row r="1637">
       <c r="B1637" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1637">
@@ -21846,7 +21846,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1645">
@@ -21859,7 +21859,7 @@
     <row r="1646">
       <c r="B1646" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1646">
@@ -21872,7 +21872,7 @@
     <row r="1647">
       <c r="B1647" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1647">
@@ -21937,7 +21937,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1652">
@@ -21963,7 +21963,7 @@
     <row r="1654">
       <c r="B1654" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1654">
@@ -21976,7 +21976,7 @@
     <row r="1655">
       <c r="B1655" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1655">
@@ -21989,7 +21989,7 @@
     <row r="1656">
       <c r="B1656" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1656">
@@ -22054,7 +22054,7 @@
     <row r="1661">
       <c r="B1661" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1661">
@@ -22210,7 +22210,7 @@
     <row r="1673">
       <c r="B1673" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1673">
@@ -22236,7 +22236,7 @@
     <row r="1675">
       <c r="B1675" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1675">
@@ -22288,7 +22288,7 @@
     <row r="1679">
       <c r="B1679" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1679">
@@ -22366,7 +22366,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1685">
@@ -22566,7 +22566,7 @@
       </c>
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1700">
@@ -22592,7 +22592,7 @@
     <row r="1702">
       <c r="B1702" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1702">
@@ -22670,7 +22670,7 @@
     <row r="1708">
       <c r="B1708" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1708">
@@ -22683,7 +22683,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1709">
@@ -22722,7 +22722,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1712">
@@ -22761,7 +22761,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1715">
@@ -22953,7 +22953,7 @@
     <row r="1729">
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1729">
@@ -22966,7 +22966,7 @@
     <row r="1730">
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1730">
@@ -23031,7 +23031,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1735">
@@ -23161,7 +23161,7 @@
     <row r="1745">
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1745">
@@ -23239,7 +23239,7 @@
     <row r="1751">
       <c r="B1751" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1751">
@@ -23304,7 +23304,7 @@
     <row r="1756">
       <c r="B1756" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1756">
@@ -23330,7 +23330,7 @@
     <row r="1758">
       <c r="B1758" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1758">
@@ -23421,7 +23421,7 @@
     <row r="1765">
       <c r="B1765" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1765">
@@ -23460,7 +23460,7 @@
     <row r="1768">
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1768">
@@ -23473,7 +23473,7 @@
     <row r="1769">
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1769">
@@ -23486,7 +23486,7 @@
     <row r="1770">
       <c r="B1770" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1770">
@@ -23499,7 +23499,7 @@
     <row r="1771">
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1771">
@@ -23512,7 +23512,7 @@
     <row r="1772">
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1772">
@@ -23706,7 +23706,7 @@
         <v>146</v>
       </c>
       <c r="D1786">
-        <v>0.0009172813289270321</v>
+        <v>0.000917281328927032</v>
       </c>
     </row>
     <row r="1787">
@@ -23719,7 +23719,7 @@
         <v>146</v>
       </c>
       <c r="D1787">
-        <v>0.0009172813289270321</v>
+        <v>0.000917281328927032</v>
       </c>
     </row>
     <row r="1788">
@@ -24302,7 +24302,7 @@
     <row r="1832">
       <c r="B1832" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1832">
@@ -24419,7 +24419,7 @@
     <row r="1841">
       <c r="B1841" t="inlineStr">
         <is>
-          <t>San Felipe de Jesús</t>
+          <t>San Felipe De Jesús</t>
         </is>
       </c>
       <c r="C1841">
@@ -24458,7 +24458,7 @@
     <row r="1844">
       <c r="B1844" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1844">
@@ -24710,7 +24710,7 @@
     <row r="1863">
       <c r="B1863" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1863">
@@ -25118,7 +25118,7 @@
     <row r="1894">
       <c r="B1894" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1894">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="B1901" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1901">
@@ -25240,7 +25240,7 @@
     <row r="1903">
       <c r="B1903" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1903">
@@ -25253,7 +25253,7 @@
     <row r="1904">
       <c r="B1904" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1904">
@@ -25331,7 +25331,7 @@
     <row r="1910">
       <c r="B1910" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1910">
@@ -25422,7 +25422,7 @@
     <row r="1917">
       <c r="B1917" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1917">
@@ -25461,7 +25461,7 @@
     <row r="1920">
       <c r="B1920" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1920">
@@ -25474,7 +25474,7 @@
     <row r="1921">
       <c r="B1921" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1921">
@@ -25513,7 +25513,7 @@
     <row r="1924">
       <c r="B1924" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1924">
@@ -25552,7 +25552,7 @@
     <row r="1927">
       <c r="B1927" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1927">
@@ -25643,7 +25643,7 @@
     <row r="1934">
       <c r="B1934" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1934">
@@ -25682,7 +25682,7 @@
     <row r="1937">
       <c r="B1937" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1937">
@@ -25838,7 +25838,7 @@
     <row r="1949">
       <c r="B1949" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1949">
@@ -25973,7 +25973,7 @@
     <row r="1959">
       <c r="B1959" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1959">
@@ -26025,7 +26025,7 @@
     <row r="1963">
       <c r="B1963" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1963">
@@ -26181,7 +26181,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1975">
@@ -26246,7 +26246,7 @@
     <row r="1980">
       <c r="B1980" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1980">
@@ -26376,7 +26376,7 @@
     <row r="1990">
       <c r="B1990" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1990">
@@ -26519,7 +26519,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C2001">
@@ -26532,7 +26532,7 @@
     <row r="2002">
       <c r="B2002" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C2002">
@@ -26753,7 +26753,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C2019">
@@ -26766,7 +26766,7 @@
     <row r="2020">
       <c r="B2020" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C2020">
@@ -26779,7 +26779,7 @@
     <row r="2021">
       <c r="B2021" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C2021">
@@ -26831,7 +26831,7 @@
     <row r="2025">
       <c r="B2025" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C2025">
@@ -26844,7 +26844,7 @@
     <row r="2026">
       <c r="B2026" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C2026">
@@ -26857,7 +26857,7 @@
     <row r="2027">
       <c r="B2027" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2027">
@@ -26870,7 +26870,7 @@
     <row r="2028">
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2028">
@@ -27013,7 +27013,7 @@
     <row r="2039">
       <c r="B2039" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2039">
@@ -27078,7 +27078,7 @@
     <row r="2044">
       <c r="B2044" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2044">
@@ -27091,7 +27091,7 @@
     <row r="2045">
       <c r="B2045" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2045">
@@ -27156,7 +27156,7 @@
     <row r="2050">
       <c r="B2050" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2050">
@@ -27182,7 +27182,7 @@
     <row r="2052">
       <c r="B2052" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2052">
@@ -27221,7 +27221,7 @@
     <row r="2055">
       <c r="B2055" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C2055">
@@ -27247,7 +27247,7 @@
     <row r="2057">
       <c r="B2057" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2057">
@@ -27390,7 +27390,7 @@
     <row r="2068">
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2068">
@@ -27442,7 +27442,7 @@
     <row r="2072">
       <c r="B2072" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2072">
@@ -27455,7 +27455,7 @@
     <row r="2073">
       <c r="B2073" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2073">
@@ -27494,7 +27494,7 @@
     <row r="2076">
       <c r="B2076" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2076">
@@ -27624,7 +27624,7 @@
     <row r="2086">
       <c r="B2086" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2086">
@@ -27676,7 +27676,7 @@
     <row r="2090">
       <c r="B2090" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2090">
@@ -27767,7 +27767,7 @@
     <row r="2097">
       <c r="B2097" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2097">
@@ -28040,7 +28040,7 @@
     <row r="2118">
       <c r="B2118" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C2118">
@@ -28222,7 +28222,7 @@
     <row r="2132">
       <c r="B2132" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2132">
@@ -28365,7 +28365,7 @@
     <row r="2143">
       <c r="B2143" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2143">
@@ -28378,7 +28378,7 @@
     <row r="2144">
       <c r="B2144" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2144">
@@ -29389,7 +29389,7 @@
     <row r="2221">
       <c r="B2221" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2221">
@@ -29415,7 +29415,7 @@
     <row r="2223">
       <c r="B2223" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2223">
@@ -29441,7 +29441,7 @@
     <row r="2225">
       <c r="B2225" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2225">
@@ -29571,7 +29571,7 @@
     <row r="2235">
       <c r="B2235" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2235">
@@ -29649,7 +29649,7 @@
     <row r="2241">
       <c r="B2241" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2241">
@@ -29714,7 +29714,7 @@
     <row r="2246">
       <c r="B2246" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2246">
@@ -29727,7 +29727,7 @@
     <row r="2247">
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2247">
@@ -29740,7 +29740,7 @@
     <row r="2248">
       <c r="B2248" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2248">
@@ -29883,7 +29883,7 @@
     <row r="2259">
       <c r="B2259" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2259">
@@ -29896,7 +29896,7 @@
     <row r="2260">
       <c r="B2260" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2260">
@@ -29922,7 +29922,7 @@
     <row r="2262">
       <c r="B2262" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2262">
@@ -29961,7 +29961,7 @@
     <row r="2265">
       <c r="B2265" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2265">
@@ -30060,41 +30060,6 @@
       </c>
       <c r="D2272">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="2275">
-      <c r="A2275" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2276">
-      <c r="A2276" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2277">
-      <c r="A2277" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2278">
-      <c r="A2278" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
